--- a/table/model.avg/abu_sp_model.avg.xlsx
+++ b/table/model.avg/abu_sp_model.avg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Research\FATES\GRS\table\model.avg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A9B3E-C4B1-45B6-A252-E8A3E4C86C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coefficients" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,96 @@
     <sheet name="coefmat.full" sheetId="4" r:id="rId4"/>
     <sheet name="coefmat.subset" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>CruiseOR1-1242</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>CruiseOR1-1242:Depth</t>
+  </si>
+  <si>
+    <t>CruiseOR1-1242:DRM</t>
+  </si>
+  <si>
+    <t>Depth:DRM</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>subset</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>logLik</t>
+  </si>
+  <si>
+    <t>AICc</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>sum_object$sw</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Cruise:Depth</t>
+  </si>
+  <si>
+    <t>Cruise:DRM</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>Adjusted SE</t>
+  </si>
+  <si>
+    <t>z value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|z|)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,15 +152,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +242,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +294,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,72 +487,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DRM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:Depth</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:DRM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Depth:DRM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>4.051231114117537</v>
+        <v>4.0512311141175372</v>
       </c>
       <c r="C2">
         <v>-0.2412501141555633</v>
       </c>
       <c r="D2">
-        <v>-0.0632079668995858</v>
+        <v>-6.3207966899585799E-2</v>
       </c>
       <c r="E2">
-        <v>-0.1512151265170542</v>
+        <v>-0.15121512651705421</v>
       </c>
       <c r="F2">
         <v>0.1237872147162947</v>
@@ -428,26 +543,24 @@
         <v>0.1554659802726932</v>
       </c>
       <c r="H2">
-        <v>0.04916820716799929</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>subset</t>
-        </is>
+        <v>4.9168207167999287E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4.051231114117538</v>
+        <v>4.0512311141175381</v>
       </c>
       <c r="C3">
-        <v>-0.2412501141555634</v>
+        <v>-0.24125011415556341</v>
       </c>
       <c r="D3">
-        <v>-0.06320796689958581</v>
+        <v>-6.3207966899585813E-2</v>
       </c>
       <c r="E3">
-        <v>-0.1512151265170542</v>
+        <v>-0.15121512651705421</v>
       </c>
       <c r="F3">
         <v>0.1237872147162947</v>
@@ -456,7 +569,7 @@
         <v>0.1554659802726932</v>
       </c>
       <c r="H3">
-        <v>0.06179045099957725</v>
+        <v>6.1790450999577251E-2</v>
       </c>
     </row>
   </sheetData>
@@ -465,84 +578,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>logLik</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>AICc</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>delta</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>36.41612263864916</v>
+        <v>36.416122638649163</v>
       </c>
       <c r="D2">
-        <v>-50.83224527729833</v>
+        <v>-50.832245277298327</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7957250088421539</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
+        <v>0.79572500884215391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>33.29633606075593</v>
+        <v>33.296336060755927</v>
       </c>
       <c r="D3">
-        <v>-48.11267212151186</v>
+        <v>-48.112672121511856</v>
       </c>
       <c r="E3">
-        <v>2.719573155786463</v>
+        <v>2.7195731557864629</v>
       </c>
       <c r="F3">
         <v>0.204274991157846</v>
@@ -554,83 +651,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sum_object$sw</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cruise</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DRM</t>
-        </is>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cruise:Depth</t>
-        </is>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cruise:DRM</t>
-        </is>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Depth:DRM</t>
-        </is>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.7957250088421539</v>
+        <v>0.79572500884215391</v>
       </c>
     </row>
   </sheetData>
@@ -639,194 +722,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted SE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>z value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|z|)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.051231114117538</v>
+        <v>4.0512311141175381</v>
       </c>
       <c r="C2">
-        <v>0.02697614695555402</v>
+        <v>2.6976146955554021E-2</v>
       </c>
       <c r="D2">
-        <v>0.02813775021691769</v>
+        <v>2.8137750216917692E-2</v>
       </c>
       <c r="E2">
-        <v>143.9785015818981</v>
+        <v>143.97850158189809</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2412501141555634</v>
+        <v>-0.24125011415556341</v>
       </c>
       <c r="C3">
-        <v>0.03875367753173926</v>
+        <v>3.8753677531739257E-2</v>
       </c>
       <c r="D3">
-        <v>0.04033787180746527</v>
+        <v>4.0337871807465273E-2</v>
       </c>
       <c r="E3">
-        <v>5.980734811867679</v>
+        <v>5.9807348118676789</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.06320796689958581</v>
+        <v>-6.3207966899585813E-2</v>
       </c>
       <c r="C4">
-        <v>0.03154804451016727</v>
+        <v>3.1548044510167267E-2</v>
       </c>
       <c r="D4">
-        <v>0.03295489084067477</v>
+        <v>3.2954890840674773E-2</v>
       </c>
       <c r="E4">
-        <v>1.918014755538835</v>
+        <v>1.9180147555388349</v>
       </c>
       <c r="F4">
-        <v>0.05510914</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DRM</t>
-        </is>
+        <v>5.5109140000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.1512151265170542</v>
+        <v>-0.15121512651705421</v>
       </c>
       <c r="C5">
-        <v>0.03669034352477182</v>
+        <v>3.6690343524771817E-2</v>
       </c>
       <c r="D5">
-        <v>0.03816622791508786</v>
+        <v>3.8166227915087857E-2</v>
       </c>
       <c r="E5">
         <v>3.962013926382173</v>
       </c>
       <c r="F5">
-        <v>7.432000000000001e-005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:Depth</t>
-        </is>
+        <v>7.4320000000000007E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.1237872147162947</v>
       </c>
       <c r="C6">
-        <v>0.04070155971880977</v>
+        <v>4.0701559718809767E-2</v>
       </c>
       <c r="D6">
-        <v>0.04249420047344461</v>
+        <v>4.2494200473444613E-2</v>
       </c>
       <c r="E6">
         <v>2.913037857804893</v>
       </c>
       <c r="F6">
-        <v>0.00357931</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:DRM</t>
-        </is>
+        <v>3.57931E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.1554659802726932</v>
       </c>
       <c r="C7">
-        <v>0.03832298143311282</v>
+        <v>3.8322981433112822E-2</v>
       </c>
       <c r="D7">
-        <v>0.0401285026308988</v>
+        <v>4.0128502630898802E-2</v>
       </c>
       <c r="E7">
-        <v>3.874203373663511</v>
+        <v>3.8742033736635109</v>
       </c>
       <c r="F7">
-        <v>0.00010697</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Depth:DRM</t>
-        </is>
+        <v>1.0697E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.04916820716799929</v>
+        <v>4.9168207167999287E-2</v>
       </c>
       <c r="C8">
-        <v>0.03438069085048841</v>
+        <v>3.4380690850488407E-2</v>
       </c>
       <c r="D8">
-        <v>0.0351868558353847</v>
+        <v>3.5186855835384702E-2</v>
       </c>
       <c r="E8">
-        <v>1.397345855453065</v>
+        <v>1.3973458554530651</v>
       </c>
       <c r="F8">
         <v>0.16230959</v>
@@ -838,197 +897,194 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted SE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>z value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|z|)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.051231114117538</v>
+        <v>4.0512311141175381</v>
       </c>
       <c r="C2">
-        <v>0.02697614695555402</v>
+        <v>2.6976146955554021E-2</v>
       </c>
       <c r="D2">
-        <v>0.02813775021691769</v>
+        <v>2.8137750216917692E-2</v>
       </c>
       <c r="E2">
-        <v>143.9785015818981</v>
+        <v>143.97850158189809</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242</t>
-        </is>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2412501141555634</v>
+        <v>-0.24125011415556341</v>
       </c>
       <c r="C3">
-        <v>0.03875367753173926</v>
+        <v>3.8753677531739257E-2</v>
       </c>
       <c r="D3">
-        <v>0.04033787180746527</v>
+        <v>4.0337871807465273E-2</v>
       </c>
       <c r="E3">
-        <v>5.980734811867679</v>
+        <v>5.9807348118676789</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
+      <c r="G3">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.06320796689958581</v>
+        <v>-6.3207966899585813E-2</v>
       </c>
       <c r="C4">
-        <v>0.03154804451016727</v>
+        <v>3.1548044510167267E-2</v>
       </c>
       <c r="D4">
-        <v>0.03295489084067477</v>
+        <v>3.2954890840674773E-2</v>
       </c>
       <c r="E4">
-        <v>1.918014755538835</v>
+        <v>1.9180147555388349</v>
       </c>
       <c r="F4">
-        <v>0.05510914</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DRM</t>
-        </is>
+        <v>5.5109140000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.1512151265170542</v>
+        <v>-0.15121512651705421</v>
       </c>
       <c r="C5">
-        <v>0.03669034352477182</v>
+        <v>3.6690343524771817E-2</v>
       </c>
       <c r="D5">
-        <v>0.03816622791508786</v>
+        <v>3.8166227915087857E-2</v>
       </c>
       <c r="E5">
         <v>3.962013926382173</v>
       </c>
       <c r="F5">
-        <v>7.432000000000001e-005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:Depth</t>
-        </is>
+        <v>7.4320000000000007E-5</v>
+      </c>
+      <c r="G5">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.1237872147162947</v>
       </c>
       <c r="C6">
-        <v>0.04070155971880977</v>
+        <v>4.0701559718809767E-2</v>
       </c>
       <c r="D6">
-        <v>0.04249420047344461</v>
+        <v>4.2494200473444613E-2</v>
       </c>
       <c r="E6">
         <v>2.913037857804893</v>
       </c>
       <c r="F6">
-        <v>0.00357931</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CruiseOR1-1242:DRM</t>
-        </is>
+        <v>3.57931E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.1554659802726932</v>
       </c>
       <c r="C7">
-        <v>0.03832298143311282</v>
+        <v>3.8322981433112822E-2</v>
       </c>
       <c r="D7">
-        <v>0.0401285026308988</v>
+        <v>4.0128502630898802E-2</v>
       </c>
       <c r="E7">
-        <v>3.874203373663511</v>
+        <v>3.8742033736635109</v>
       </c>
       <c r="F7">
-        <v>0.00010697</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Depth:DRM</t>
-        </is>
+        <v>1.0697E-4</v>
+      </c>
+      <c r="G7">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06179045099957725</v>
+        <v>6.1790450999577251E-2</v>
       </c>
       <c r="C8">
-        <v>0.02656207345534019</v>
+        <v>2.6562073455340191E-2</v>
       </c>
       <c r="D8">
-        <v>0.02785720776989634</v>
+        <v>2.785720776989634E-2</v>
       </c>
       <c r="E8">
-        <v>2.218113585179582</v>
+        <v>2.2181135851795819</v>
       </c>
       <c r="F8">
-        <v>0.02654709</v>
+        <v>2.6547089999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.79572500884215391</v>
       </c>
     </row>
   </sheetData>

--- a/table/model.avg/abu_sp_model.avg.xlsx
+++ b/table/model.avg/abu_sp_model.avg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Research\FATES\GRS\table\model.avg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A9B3E-C4B1-45B6-A252-E8A3E4C86C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="coefficients" sheetId="1" r:id="rId1"/>
@@ -19,96 +13,13 @@
     <sheet name="coefmat.full" sheetId="4" r:id="rId4"/>
     <sheet name="coefmat.subset" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>CruiseOR1-1242</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>DRM</t>
-  </si>
-  <si>
-    <t>CruiseOR1-1242:Depth</t>
-  </si>
-  <si>
-    <t>CruiseOR1-1242:DRM</t>
-  </si>
-  <si>
-    <t>Depth:DRM</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>subset</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>logLik</t>
-  </si>
-  <si>
-    <t>AICc</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>sum_object$sw</t>
-  </si>
-  <si>
-    <t>Cruise</t>
-  </si>
-  <si>
-    <t>Cruise:Depth</t>
-  </si>
-  <si>
-    <t>Cruise:DRM</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Std. Error</t>
-  </si>
-  <si>
-    <t>Adjusted SE</t>
-  </si>
-  <si>
-    <t>z value</t>
-  </si>
-  <si>
-    <t>Pr(&gt;|z|)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,23 +63,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,54 +354,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:Depth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:DRM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Depth:DRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
       </c>
       <c r="B2">
-        <v>4.0512311141175372</v>
+        <v>4.051231114117537</v>
       </c>
       <c r="C2">
         <v>-0.2412501141555633</v>
       </c>
       <c r="D2">
-        <v>-6.3207966899585799E-2</v>
+        <v>-0.0632079668995858</v>
       </c>
       <c r="E2">
-        <v>-0.15121512651705421</v>
+        <v>-0.1512151265170542</v>
       </c>
       <c r="F2">
         <v>0.1237872147162947</v>
@@ -543,24 +428,26 @@
         <v>0.1554659802726932</v>
       </c>
       <c r="H2">
-        <v>4.9168207167999287E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>0.04916820716799929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>subset</t>
+        </is>
       </c>
       <c r="B3">
-        <v>4.0512311141175381</v>
+        <v>4.051231114117538</v>
       </c>
       <c r="C3">
-        <v>-0.24125011415556341</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="D3">
-        <v>-6.3207966899585813E-2</v>
+        <v>-0.06320796689958581</v>
       </c>
       <c r="E3">
-        <v>-0.15121512651705421</v>
+        <v>-0.1512151265170542</v>
       </c>
       <c r="F3">
         <v>0.1237872147162947</v>
@@ -569,7 +456,7 @@
         <v>0.1554659802726932</v>
       </c>
       <c r="H3">
-        <v>6.1790450999577251E-2</v>
+        <v>0.06179045099957725</v>
       </c>
     </row>
   </sheetData>
@@ -578,68 +465,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logLik</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AICc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>36.416122638649163</v>
+        <v>36.41612263864916</v>
       </c>
       <c r="D2">
-        <v>-50.832245277298327</v>
+        <v>-50.83224527729833</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.79572500884215391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>0.7957250088421539</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>33.296336060755927</v>
+        <v>33.29633606075593</v>
       </c>
       <c r="D3">
-        <v>-48.112672121511856</v>
+        <v>-48.11267212151186</v>
       </c>
       <c r="E3">
-        <v>2.7195731557864629</v>
+        <v>2.719573155786463</v>
       </c>
       <c r="F3">
         <v>0.204274991157846</v>
@@ -651,69 +554,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sum_object$sw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cruise</t>
+        </is>
       </c>
       <c r="B2">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
       </c>
       <c r="B3">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
       </c>
       <c r="B4">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cruise:Depth</t>
+        </is>
       </c>
       <c r="B5">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cruise:DRM</t>
+        </is>
       </c>
       <c r="B6">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Depth:DRM</t>
+        </is>
       </c>
       <c r="B7">
-        <v>0.79572500884215391</v>
+        <v>0.7957250088421539</v>
       </c>
     </row>
   </sheetData>
@@ -722,170 +639,194 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Std. Error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Adjusted SE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>z value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;|z|)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
       </c>
       <c r="B2">
-        <v>4.0512311141175381</v>
+        <v>4.051231114117538</v>
       </c>
       <c r="C2">
-        <v>2.6976146955554021E-2</v>
+        <v>0.02697614695555402</v>
       </c>
       <c r="D2">
-        <v>2.8137750216917692E-2</v>
+        <v>0.02813775021691769</v>
       </c>
       <c r="E2">
-        <v>143.97850158189809</v>
+        <v>143.9785015818981</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-0.24125011415556341</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="C3">
-        <v>3.8753677531739257E-2</v>
+        <v>0.03875367753173926</v>
       </c>
       <c r="D3">
-        <v>4.0337871807465273E-2</v>
+        <v>0.04033787180746527</v>
       </c>
       <c r="E3">
-        <v>5.9807348118676789</v>
+        <v>5.980734811867679</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-6.3207966899585813E-2</v>
+        <v>-0.06320796689958581</v>
       </c>
       <c r="C4">
-        <v>3.1548044510167267E-2</v>
+        <v>0.03154804451016727</v>
       </c>
       <c r="D4">
-        <v>3.2954890840674773E-2</v>
+        <v>0.03295489084067477</v>
       </c>
       <c r="E4">
-        <v>1.9180147555388349</v>
+        <v>1.918014755538835</v>
       </c>
       <c r="F4">
-        <v>5.5109140000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+        <v>0.05510914</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-0.15121512651705421</v>
+        <v>-0.1512151265170542</v>
       </c>
       <c r="C5">
-        <v>3.6690343524771817E-2</v>
+        <v>0.03669034352477182</v>
       </c>
       <c r="D5">
-        <v>3.8166227915087857E-2</v>
+        <v>0.03816622791508786</v>
       </c>
       <c r="E5">
         <v>3.962013926382173</v>
       </c>
       <c r="F5">
-        <v>7.4320000000000007E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>7.432000000000001e-005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:Depth</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.1237872147162947</v>
       </c>
       <c r="C6">
-        <v>4.0701559718809767E-2</v>
+        <v>0.04070155971880977</v>
       </c>
       <c r="D6">
-        <v>4.2494200473444613E-2</v>
+        <v>0.04249420047344461</v>
       </c>
       <c r="E6">
         <v>2.913037857804893</v>
       </c>
       <c r="F6">
-        <v>3.57931E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+        <v>0.00357931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:DRM</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.1554659802726932</v>
       </c>
       <c r="C7">
-        <v>3.8322981433112822E-2</v>
+        <v>0.03832298143311282</v>
       </c>
       <c r="D7">
-        <v>4.0128502630898802E-2</v>
+        <v>0.0401285026308988</v>
       </c>
       <c r="E7">
-        <v>3.8742033736635109</v>
+        <v>3.874203373663511</v>
       </c>
       <c r="F7">
-        <v>1.0697E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>0.00010697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Depth:DRM</t>
+        </is>
       </c>
       <c r="B8">
-        <v>4.9168207167999287E-2</v>
+        <v>0.04916820716799929</v>
       </c>
       <c r="C8">
-        <v>3.4380690850488407E-2</v>
+        <v>0.03438069085048841</v>
       </c>
       <c r="D8">
-        <v>3.5186855835384702E-2</v>
+        <v>0.0351868558353847</v>
       </c>
       <c r="E8">
-        <v>1.3973458554530651</v>
+        <v>1.397345855453065</v>
       </c>
       <c r="F8">
         <v>0.16230959</v>
@@ -897,194 +838,197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Std. Error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Adjusted SE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>z value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;|z|)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
       </c>
       <c r="B2">
-        <v>4.0512311141175381</v>
+        <v>4.051231114117538</v>
       </c>
       <c r="C2">
-        <v>2.6976146955554021E-2</v>
+        <v>0.02697614695555402</v>
       </c>
       <c r="D2">
-        <v>2.8137750216917692E-2</v>
+        <v>0.02813775021691769</v>
       </c>
       <c r="E2">
-        <v>143.97850158189809</v>
+        <v>143.9785015818981</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-0.24125011415556341</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="C3">
-        <v>3.8753677531739257E-2</v>
+        <v>0.03875367753173926</v>
       </c>
       <c r="D3">
-        <v>4.0337871807465273E-2</v>
+        <v>0.04033787180746527</v>
       </c>
       <c r="E3">
-        <v>5.9807348118676789</v>
+        <v>5.980734811867679</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-6.3207966899585813E-2</v>
+        <v>-0.06320796689958581</v>
       </c>
       <c r="C4">
-        <v>3.1548044510167267E-2</v>
+        <v>0.03154804451016727</v>
       </c>
       <c r="D4">
-        <v>3.2954890840674773E-2</v>
+        <v>0.03295489084067477</v>
       </c>
       <c r="E4">
-        <v>1.9180147555388349</v>
+        <v>1.918014755538835</v>
       </c>
       <c r="F4">
-        <v>5.5109140000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+        <v>0.05510914</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-0.15121512651705421</v>
+        <v>-0.1512151265170542</v>
       </c>
       <c r="C5">
-        <v>3.6690343524771817E-2</v>
+        <v>0.03669034352477182</v>
       </c>
       <c r="D5">
-        <v>3.8166227915087857E-2</v>
+        <v>0.03816622791508786</v>
       </c>
       <c r="E5">
         <v>3.962013926382173</v>
       </c>
       <c r="F5">
-        <v>7.4320000000000007E-5</v>
-      </c>
-      <c r="G5">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>7.432000000000001e-005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:Depth</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.1237872147162947</v>
       </c>
       <c r="C6">
-        <v>4.0701559718809767E-2</v>
+        <v>0.04070155971880977</v>
       </c>
       <c r="D6">
-        <v>4.2494200473444613E-2</v>
+        <v>0.04249420047344461</v>
       </c>
       <c r="E6">
         <v>2.913037857804893</v>
       </c>
       <c r="F6">
-        <v>3.57931E-3</v>
-      </c>
-      <c r="G6">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+        <v>0.00357931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CruiseOR1-1242:DRM</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.1554659802726932</v>
       </c>
       <c r="C7">
-        <v>3.8322981433112822E-2</v>
+        <v>0.03832298143311282</v>
       </c>
       <c r="D7">
-        <v>4.0128502630898802E-2</v>
+        <v>0.0401285026308988</v>
       </c>
       <c r="E7">
-        <v>3.8742033736635109</v>
+        <v>3.874203373663511</v>
       </c>
       <c r="F7">
-        <v>1.0697E-4</v>
-      </c>
-      <c r="G7">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>0.00010697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Depth:DRM</t>
+        </is>
       </c>
       <c r="B8">
-        <v>6.1790450999577251E-2</v>
+        <v>0.06179045099957725</v>
       </c>
       <c r="C8">
-        <v>2.6562073455340191E-2</v>
+        <v>0.02656207345534019</v>
       </c>
       <c r="D8">
-        <v>2.785720776989634E-2</v>
+        <v>0.02785720776989634</v>
       </c>
       <c r="E8">
-        <v>2.2181135851795819</v>
+        <v>2.218113585179582</v>
       </c>
       <c r="F8">
-        <v>2.6547089999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.79572500884215391</v>
+        <v>0.02654709</v>
       </c>
     </row>
   </sheetData>

--- a/table/model.avg/abu_sp_model.avg.xlsx
+++ b/table/model.avg/abu_sp_model.avg.xlsx
@@ -374,32 +374,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
     </row>
@@ -413,22 +413,22 @@
         <v>4.051231114117537</v>
       </c>
       <c r="C2">
-        <v>-0.2412501141555633</v>
+        <v>-0.06320796689958592</v>
       </c>
       <c r="D2">
-        <v>-0.0632079668995858</v>
+        <v>-0.1512151265170543</v>
       </c>
       <c r="E2">
-        <v>-0.1512151265170542</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="F2">
-        <v>0.1237872147162947</v>
+        <v>0.04916820716799926</v>
       </c>
       <c r="G2">
-        <v>0.1554659802726932</v>
+        <v>0.1237872147162948</v>
       </c>
       <c r="H2">
-        <v>0.04916820716799929</v>
+        <v>0.1554659802726933</v>
       </c>
     </row>
     <row r="3">
@@ -441,22 +441,22 @@
         <v>4.051231114117538</v>
       </c>
       <c r="C3">
+        <v>-0.06320796689958594</v>
+      </c>
+      <c r="D3">
+        <v>-0.1512151265170543</v>
+      </c>
+      <c r="E3">
         <v>-0.2412501141555634</v>
       </c>
-      <c r="D3">
-        <v>-0.06320796689958581</v>
-      </c>
-      <c r="E3">
-        <v>-0.1512151265170542</v>
-      </c>
       <c r="F3">
-        <v>0.1237872147162947</v>
+        <v>0.06179045099957722</v>
       </c>
       <c r="G3">
-        <v>0.1554659802726932</v>
+        <v>0.1237872147162948</v>
       </c>
       <c r="H3">
-        <v>0.06179045099957725</v>
+        <v>0.1554659802726933</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12356</t>
         </is>
       </c>
       <c r="B3">
@@ -576,7 +576,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="B2">
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B3">
@@ -596,7 +596,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B4">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cruise:Depth</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="B5">
@@ -616,7 +616,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="B6">
@@ -703,133 +703,133 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.2412501141555634</v>
+        <v>-0.06320796689958594</v>
       </c>
       <c r="C3">
-        <v>0.03875367753173926</v>
+        <v>0.0315480445101673</v>
       </c>
       <c r="D3">
-        <v>0.04033787180746527</v>
+        <v>0.0329548908406748</v>
       </c>
       <c r="E3">
-        <v>5.980734811867679</v>
+        <v>1.918014755538837</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.05510914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.06320796689958581</v>
+        <v>-0.1512151265170543</v>
       </c>
       <c r="C4">
-        <v>0.03154804451016727</v>
+        <v>0.03669034352477185</v>
       </c>
       <c r="D4">
-        <v>0.03295489084067477</v>
+        <v>0.03816622791508788</v>
       </c>
       <c r="E4">
-        <v>1.918014755538835</v>
+        <v>3.962013926382176</v>
       </c>
       <c r="F4">
-        <v>0.05510914</v>
+        <v>7.432000000000001e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.1512151265170542</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="C5">
-        <v>0.03669034352477182</v>
+        <v>0.03875367753173927</v>
       </c>
       <c r="D5">
-        <v>0.03816622791508786</v>
+        <v>0.04033787180746528</v>
       </c>
       <c r="E5">
-        <v>3.962013926382173</v>
+        <v>5.980734811867679</v>
       </c>
       <c r="F5">
-        <v>7.432000000000001e-005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1237872147162947</v>
+        <v>0.04916820716799927</v>
       </c>
       <c r="C6">
-        <v>0.04070155971880977</v>
+        <v>0.0343806908504884</v>
       </c>
       <c r="D6">
-        <v>0.04249420047344461</v>
+        <v>0.03518685583538469</v>
       </c>
       <c r="E6">
-        <v>2.913037857804893</v>
+        <v>1.397345855453064</v>
       </c>
       <c r="F6">
-        <v>0.00357931</v>
+        <v>0.16230959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1554659802726932</v>
+        <v>0.1237872147162948</v>
       </c>
       <c r="C7">
-        <v>0.03832298143311282</v>
+        <v>0.04070155971880979</v>
       </c>
       <c r="D7">
-        <v>0.0401285026308988</v>
+        <v>0.04249420047344463</v>
       </c>
       <c r="E7">
-        <v>3.874203373663511</v>
+        <v>2.913037857804893</v>
       </c>
       <c r="F7">
-        <v>0.00010697</v>
+        <v>0.00357931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.04916820716799929</v>
+        <v>0.1554659802726933</v>
       </c>
       <c r="C8">
-        <v>0.03438069085048841</v>
+        <v>0.03832298143311283</v>
       </c>
       <c r="D8">
-        <v>0.0351868558353847</v>
+        <v>0.04012850263089879</v>
       </c>
       <c r="E8">
-        <v>1.397345855453065</v>
+        <v>3.874203373663513</v>
       </c>
       <c r="F8">
-        <v>0.16230959</v>
+        <v>0.00010697</v>
       </c>
     </row>
   </sheetData>
@@ -902,133 +902,133 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.2412501141555634</v>
+        <v>-0.06320796689958594</v>
       </c>
       <c r="C3">
-        <v>0.03875367753173926</v>
+        <v>0.0315480445101673</v>
       </c>
       <c r="D3">
-        <v>0.04033787180746527</v>
+        <v>0.0329548908406748</v>
       </c>
       <c r="E3">
-        <v>5.980734811867679</v>
+        <v>1.918014755538837</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.05510914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.06320796689958581</v>
+        <v>-0.1512151265170543</v>
       </c>
       <c r="C4">
-        <v>0.03154804451016727</v>
+        <v>0.03669034352477185</v>
       </c>
       <c r="D4">
-        <v>0.03295489084067477</v>
+        <v>0.03816622791508788</v>
       </c>
       <c r="E4">
-        <v>1.918014755538835</v>
+        <v>3.962013926382176</v>
       </c>
       <c r="F4">
-        <v>0.05510914</v>
+        <v>7.432000000000001e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.1512151265170542</v>
+        <v>-0.2412501141555634</v>
       </c>
       <c r="C5">
-        <v>0.03669034352477182</v>
+        <v>0.03875367753173927</v>
       </c>
       <c r="D5">
-        <v>0.03816622791508786</v>
+        <v>0.04033787180746528</v>
       </c>
       <c r="E5">
-        <v>3.962013926382173</v>
+        <v>5.980734811867679</v>
       </c>
       <c r="F5">
-        <v>7.432000000000001e-005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1237872147162947</v>
+        <v>0.06179045099957722</v>
       </c>
       <c r="C6">
-        <v>0.04070155971880977</v>
+        <v>0.02656207345534019</v>
       </c>
       <c r="D6">
-        <v>0.04249420047344461</v>
+        <v>0.02785720776989634</v>
       </c>
       <c r="E6">
-        <v>2.913037857804893</v>
+        <v>2.21811358517958</v>
       </c>
       <c r="F6">
-        <v>0.00357931</v>
+        <v>0.02654709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1554659802726932</v>
+        <v>0.1237872147162948</v>
       </c>
       <c r="C7">
-        <v>0.03832298143311282</v>
+        <v>0.04070155971880979</v>
       </c>
       <c r="D7">
-        <v>0.0401285026308988</v>
+        <v>0.04249420047344463</v>
       </c>
       <c r="E7">
-        <v>3.874203373663511</v>
+        <v>2.913037857804893</v>
       </c>
       <c r="F7">
-        <v>0.00010697</v>
+        <v>0.00357931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.06179045099957725</v>
+        <v>0.1554659802726933</v>
       </c>
       <c r="C8">
-        <v>0.02656207345534019</v>
+        <v>0.03832298143311283</v>
       </c>
       <c r="D8">
-        <v>0.02785720776989634</v>
+        <v>0.04012850263089879</v>
       </c>
       <c r="E8">
-        <v>2.218113585179582</v>
+        <v>3.874203373663513</v>
       </c>
       <c r="F8">
-        <v>0.02654709</v>
+        <v>0.00010697</v>
       </c>
     </row>
   </sheetData>
